--- a/doc/functions overview.xlsx
+++ b/doc/functions overview.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leendert.vanwolfswin\Dropbox\Documents\Nelen en Schuurmans\side-projects\pg3Di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leendert.vanwolfswin\Documents\GitHub\pg3Di\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D002C-3CBE-449E-90DD-08961B4FA632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA441CC-E9AE-4375-BDC2-EB20A2D94100}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5052" xr2:uid="{21A1653F-F4D0-43D6-92D8-2836FBFAA06D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{21A1653F-F4D0-43D6-92D8-2836FBFAA06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
     <sheet name="Information functions" sheetId="2" r:id="rId2"/>
     <sheet name="Editing functions" sheetId="1" r:id="rId3"/>
-    <sheet name="Misc functions" sheetId="3" r:id="rId4"/>
-    <sheet name="Boundary Conditions functions" sheetId="4" r:id="rId5"/>
-    <sheet name="Bronnen voor code" sheetId="7" r:id="rId6"/>
+    <sheet name="Check functions" sheetId="8" r:id="rId4"/>
+    <sheet name="Misc functions" sheetId="3" r:id="rId5"/>
+    <sheet name="Boundary Conditions functions" sheetId="4" r:id="rId6"/>
+    <sheet name="Bronnen voor code" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>Channel</t>
   </si>
@@ -486,6 +487,12 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Include everything from Data Checker en Kwaliteit Rekenklaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinguish between 'impossible to run simulation', 'likely wrong', 'pay extra attention here' </t>
   </si>
 </sst>
 </file>
@@ -900,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881B83D1-9935-4441-B35C-3C961DFBDCB1}">
   <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1675,6 +1682,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA60C57-D4EE-4DEC-B43B-6202D53357F9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB12BBE3-A1D7-4E96-B717-9F0E6144B582}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1795,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8B314-F362-40D7-A618-E9B569427ED1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1807,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D0C614-7AD6-4FFB-A9E3-0D852B62EF69}">
   <dimension ref="B2:B5"/>
   <sheetViews>

--- a/doc/functions overview.xlsx
+++ b/doc/functions overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leendert.vanwolfswin\Documents\GitHub\pg3Di\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA441CC-E9AE-4375-BDC2-EB20A2D94100}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47ACA5-ED4C-4C4A-8CA4-603958135A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{21A1653F-F4D0-43D6-92D8-2836FBFAA06D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{21A1653F-F4D0-43D6-92D8-2836FBFAA06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
   <si>
     <t>Channel</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Create extension pg3Di</t>
-  </si>
-  <si>
-    <t>Install</t>
   </si>
   <si>
     <t>pg3Di is an extension for postgres databases to store, analyze and manipulate 3Di models. It depends on the PostGIS extension.</t>
@@ -493,6 +490,18 @@
   </si>
   <si>
     <t xml:space="preserve">Distinguish between 'impossible to run simulation', 'likely wrong', 'pay extra attention here' </t>
+  </si>
+  <si>
+    <t>Linify</t>
+  </si>
+  <si>
+    <t>Linify(point_geom geometry, target_line_type pg3DiLineObjectString, target_line_id integer, length double precision, to_line_snap_dist double precision, to_ends_snap_dist double precision, properties hstore)</t>
+  </si>
+  <si>
+    <t>Install / meta</t>
+  </si>
+  <si>
+    <t>pg3di_version()</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,10 +590,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -918,32 +923,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
@@ -978,7 +983,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -1013,47 +1018,47 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
@@ -1063,27 +1068,27 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
@@ -1093,37 +1098,37 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>95</v>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
-        <v>106</v>
+      <c r="B49" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
@@ -1138,32 +1143,32 @@
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1194,127 +1199,127 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>110</v>
+      <c r="D4" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>110</v>
+      <c r="D12" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1346,86 +1351,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51828821-8C8A-47FB-BBF4-A80F80EA961F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1433,16 +1442,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1453,13 +1465,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1467,16 +1482,19 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1484,16 +1502,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1504,13 +1525,16 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1521,29 +1545,32 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1551,19 +1578,22 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1571,16 +1601,19 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1588,16 +1621,19 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1605,33 +1641,36 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1639,39 +1678,42 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>59</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1685,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA60C57-D4EE-4DEC-B43B-6202D53357F9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1693,12 +1735,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB12BBE3-A1D7-4E96-B717-9F0E6144B582}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1729,96 +1771,101 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>139</v>
+      <c r="A20" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
         <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1851,22 +1898,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
